--- a/anova_template.xlsx
+++ b/anova_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Desktop\Pablo\ING.Biomedica (UPM)\4.Curso\(LSB) Laboratorio de Señales Biomedicas\Practicas\Practica 2 (ratones)\datos-txt&amp;analisis\LSB-P2-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD564CA7-0E20-42E7-B1FE-0D22FBD8CCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3E7ACE-49ED-4E5E-8026-194524EF6741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="46">
-  <si>
-    <t>ANOVA 2 vías - pata izquierda - HD</t>
-  </si>
   <si>
     <t>Datos</t>
   </si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Absolute area</t>
+  </si>
+  <si>
+    <t>ANOVA 2 vías</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1186,7 @@
   <dimension ref="B1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1208,37 +1208,37 @@
     <row r="1" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1248,13 +1248,13 @@
     </row>
     <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1263,10 +1263,10 @@
     </row>
     <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="7"/>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -1284,33 +1284,33 @@
     </row>
     <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1318,14 +1318,14 @@
     </row>
     <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
         <f>C10*C9</f>
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3">
         <f>C10*C8</f>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3">
         <f>C8*C9*C10</f>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E14" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="11">
         <f>0.05</f>
@@ -1360,45 +1360,45 @@
     </row>
     <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="K16" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="15" t="e">
         <f>AVERAGE(F5:H6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="3" t="e">
         <f>C11*((C18-C17)^2+(C19-C17)^2)</f>
@@ -1427,14 +1427,14 @@
     </row>
     <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="19" t="e">
         <f t="shared" ref="C18:C19" si="3">AVERAGE(F5:H5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3" t="e">
         <f>C12*((C20-C17)^2+(C21-C17)^2+(C22-C17)^2)</f>
@@ -1463,14 +1463,14 @@
     </row>
     <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="3" t="e">
         <f>SUMPRODUCT(F5:H6,F5:H6)*C10-(C17^2*C13)-F17-F18</f>
@@ -1499,14 +1499,14 @@
     </row>
     <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="23" t="e">
         <f>AVERAGE(F5:F6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="24">
         <f>(C10-1)*SUM(F10:H11)</f>
@@ -1525,14 +1525,14 @@
     </row>
     <row r="21" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="28" t="e">
         <f>AVERAGE(G5:G6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="29" t="e">
         <f>SUM(F17:F20)</f>
@@ -1544,18 +1544,18 @@
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="30" t="e">
         <f>AVERAGE(H5:H6)</f>
@@ -2639,7 +2639,7 @@
   <dimension ref="B1:K1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2661,37 +2661,37 @@
     <row r="1" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2701,13 +2701,13 @@
     </row>
     <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2716,10 +2716,10 @@
     </row>
     <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="7"/>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="8" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -2737,33 +2737,33 @@
     </row>
     <row r="9" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2771,14 +2771,14 @@
     </row>
     <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
         <f>C10*C9</f>
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3">
         <f>C10*C8</f>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3">
         <f>C8*C9*C10</f>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="14" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E14" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="11">
         <f>0.05</f>
@@ -2813,45 +2813,45 @@
     </row>
     <row r="15" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="K16" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="15" t="e">
         <f>AVERAGE(F5:H6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="3" t="e">
         <f>C11*((C18-C17)^2+(C19-C17)^2)</f>
@@ -2880,14 +2880,14 @@
     </row>
     <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="19" t="e">
         <f t="shared" ref="C18:C19" si="3">AVERAGE(F5:H5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3" t="e">
         <f>C12*((C20-C17)^2+(C21-C17)^2+(C22-C17)^2)</f>
@@ -2916,14 +2916,14 @@
     </row>
     <row r="19" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="3" t="e">
         <f>SUMPRODUCT(F5:H6,F5:H6)*C10-(C17^2*C13)-F17-F18</f>
@@ -2952,14 +2952,14 @@
     </row>
     <row r="20" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="23" t="e">
         <f>AVERAGE(F5:F6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="24">
         <f>(C10-1)*SUM(F10:H11)</f>
@@ -2978,14 +2978,14 @@
     </row>
     <row r="21" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="28" t="e">
         <f>AVERAGE(G5:G6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="29" t="e">
         <f>SUM(F17:F20)</f>
@@ -2997,18 +2997,18 @@
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="30" t="e">
         <f>AVERAGE(H5:H6)</f>
@@ -4092,7 +4092,7 @@
   <dimension ref="B1:K1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4114,37 +4114,37 @@
     <row r="1" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -4154,13 +4154,13 @@
     </row>
     <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -4169,10 +4169,10 @@
     </row>
     <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="7"/>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="8" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -4190,33 +4190,33 @@
     </row>
     <row r="9" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -4224,14 +4224,14 @@
     </row>
     <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
         <f>C10*C9</f>
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3">
         <f>C10*C8</f>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3">
         <f>C8*C9*C10</f>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="14" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E14" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="11">
         <f>0.05</f>
@@ -4266,45 +4266,45 @@
     </row>
     <row r="15" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="K16" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="15" t="e">
         <f>AVERAGE(F5:H6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="3" t="e">
         <f>C11*((C18-C17)^2+(C19-C17)^2)</f>
@@ -4333,14 +4333,14 @@
     </row>
     <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="19" t="e">
         <f t="shared" ref="C18:C19" si="3">AVERAGE(F5:H5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3" t="e">
         <f>C12*((C20-C17)^2+(C21-C17)^2+(C22-C17)^2)</f>
@@ -4369,14 +4369,14 @@
     </row>
     <row r="19" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="3" t="e">
         <f>SUMPRODUCT(F5:H6,F5:H6)*C10-(C17^2*C13)-F17-F18</f>
@@ -4405,14 +4405,14 @@
     </row>
     <row r="20" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="23" t="e">
         <f>AVERAGE(F5:F6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="24">
         <f>(C10-1)*SUM(F10:H11)</f>
@@ -4431,14 +4431,14 @@
     </row>
     <row r="21" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="28" t="e">
         <f>AVERAGE(G5:G6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="29" t="e">
         <f>SUM(F17:F20)</f>
@@ -4450,18 +4450,18 @@
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="30" t="e">
         <f>AVERAGE(H5:H6)</f>
